--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字符的历史" sheetId="2" r:id="rId1"/>
-    <sheet name="QString的汉字转换" sheetId="1" r:id="rId2"/>
+    <sheet name="QString的转换" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Qt中文编码和QString类Unicode编码转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,12 +250,20 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>中文编码和QString类Unicode的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *的内容原始以HEX的方式显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,13 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -299,6 +296,15 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -332,21 +338,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -678,7 +753,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:sysClr val="window" lastClr="A0A0A0"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1133,7 +1208,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1496,13 +1571,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1513,8 +1588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4330212"/>
-          <a:ext cx="5612422" cy="3333750"/>
+          <a:off x="0" y="4337539"/>
+          <a:ext cx="5612422" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,18 +1725,417 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161192</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7825155"/>
+          <a:ext cx="5671038" cy="3209191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//dismode=1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>显示的格式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0x01 0xFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//dismode=0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>显示的格式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>01 FF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString Display_charbin2Hex(int dismode,char * charbuf)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString strDisplay;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QByteArray byte_data= charbuf;//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将原始数据丢到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Qbytearray</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString str =byte_data.toHex().data();//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将原始数据转化为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进制的类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str = str.toUpper();//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Qstring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容以大写方式显示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  for(int i=0;i&lt;str.length();i+=2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if(dismode==1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    strDisplay += "0x";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    QString st = str.mid(i,2);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    strDisplay += st;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    strDisplay += " ";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>strDisplay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="A0A0A0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1728,7 +2202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1763,7 +2236,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1939,156 +2411,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18.75">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18.75">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75">
+      <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2100,36 +2572,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
+    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
+      <c r="A44" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2141,12 +2618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="字符的历史" sheetId="2" r:id="rId1"/>
     <sheet name="QString的转换" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="串口的操作" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +257,26 @@
   </si>
   <si>
     <t>char *的内容原始以HEX的方式显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qt串口操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 需要的相应模块和设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 操作串口需要的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 发送数据和接收数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 串口例程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,6 +2148,3914 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="556114"/>
+          <a:ext cx="5588976" cy="1288804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>.pro</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>上添加串口组件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>必须是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>.pro</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>文件中的第一行或者第二行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>QT       += serialport</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>需要的头文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include &lt;QtSerialPort/QSerialPort&gt;  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>提供访问串口的功能 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include &lt;QtSerialPort/QSerialPortInfo&gt;  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>提供系统中存在的串口的信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2293326"/>
+          <a:ext cx="5612422" cy="2806212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QSerialPort *serial = new QSerialPort;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;setPortName(name); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置串口名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;open(QIODevice::ReadWrite); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打开串口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;setBaudRate(BaudRate); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置波特率 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;setDataBits(QSerialPort::Data8);  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置数据位数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;setParity(QSerialPort::NoParity); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置奇偶校验</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;setStopBits(QSerialPort::OneStop); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置停止位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;setFlowControl(QSerialPort::NoFlowControl);</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置流控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5421923"/>
+          <a:ext cx="5612422" cy="2930769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>读取数据的信号和槽</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>connect(serial, &amp;QSerialPort::readyRead, this, &amp;MainWindow::Read_Data); </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>槽函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void MainWindow::Read_Data()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      QByteArray buf;      </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>       buf = serial-&gt;readAll(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>当串口收到数据并且接收完毕后，会发出一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>readyRead()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>的信号，因此只需要编写一个槽函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Read_Data()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>，设置信号槽，并在槽函数中使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>readAll()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>把收到的数据读到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>buf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>中。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>发送数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;write(data); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>write</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>函数便可以把字符串</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>一个个字节发送出去。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>关闭串口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>serial-&gt;close();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>使用完后只需要关闭串口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446942</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120257</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5956788" y="16588153"/>
+          <a:ext cx="3805700" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14654" y="8806961"/>
+          <a:ext cx="5612422" cy="5268058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//mianwindow.h  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#ifndef MAINWINDOW_H  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#define MAINWINDOW_H  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include &lt;QMainWindow&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include &lt;QDebug&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include &lt;QtSerialPort/QSerialPort&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include &lt;QtSerialPort/QSerialPortInfo&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>namespace Ui </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>class MainWindow;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>class MainWindow : public QMainWindow  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    Q_OBJECT  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>public:  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    explicit MainWindow(QWidget *parent = 0);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    ~MainWindow();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>private slots:  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    void on_clearButton_clicked();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    void on_sendButton_clicked();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    void on_openButton_clicked();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    void Read_Data();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>private:  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    Ui::MainWindow *ui;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QSerialPort *serial;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>};  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#endif // MAINWINDOW_H  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>87918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14654" y="14265514"/>
+          <a:ext cx="5612422" cy="26948428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//mainwindow.c  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include "mainwindow.h"  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include "ui_mainwindow.h"  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>MainWindow::MainWindow(QWidget *parent) :  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QMainWindow(parent),  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    ui(new Ui::MainWindow)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    ui-&gt;setupUi(this);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>查找可用的串口，并将端口号放到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>PortBox</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>中  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>foreach(const </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QSerialPortInfo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> &amp;info, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QSerialPortInfo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>::availablePorts())  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        qDebug() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&lt;&lt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Name : "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> &lt;&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> info.portName(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        qDebug() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&lt;&lt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Description : "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> &lt;&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> info.description(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        qDebug() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&lt;&lt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Manufacturer: "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> &lt;&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> info.manufacturer();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        QSerialPort serial;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        serial.setPort(info);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        if(serial.open(QIODevice::ReadWrite))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            ui-&gt;PortBox-&gt;addItem(serial.portName());  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            serial.close();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ui-&gt;BaudBox-&gt;setCurrentIndex(3);  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置波特率下拉菜单默认显示第三项  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ui-&gt;sendButton-&gt;setEnabled(false);  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关闭发送按钮的使能  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    qDebug() &lt;&lt; tr("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>界面设定成功！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>MainWindow::~MainWindow()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    delete ui;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>具体的设置步骤</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>void MainWindow::on_openButton_clicked()  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if(ui-&gt;openButton-&gt;text()==tr("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打开串口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"))  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        serial = new QSerialPort;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serial-&gt;setPortName(ui-&gt;PortBox-&gt;currentText());  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置串口名  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serial-&gt;open(QIODevice::ReadWrite); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打开串口  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serial-&gt;setBaudRate(ui-&gt;BaudBox-&gt;currentText().toInt());   //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置波特率  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>switch(ui-&gt;BitNumBox-&gt;currentIndex())  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置数据位 </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              case 8: serial-&gt;setDataBits(QSerialPort::Data8); break;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              default: break;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>switch(ui-&gt;ParityBox-&gt;currentIndex())  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置奇偶校验  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>           case 0: serial-&gt;setParity(QSerialPort::NoParity); break;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>           default: break;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>switch(ui-&gt;StopBox-&gt;currentIndex())   //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置停止位  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            case 1: serial-&gt;setStopBits(QSerialPort::OneStop); break;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            case 2: serial-&gt;setStopBits(QSerialPort::TwoStop); break;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            default: break;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serial-&gt;setFlowControl(QSerialPort::NoFlowControl); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置流控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置为否</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关闭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>串口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置使能  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ui-&gt;PortBox-&gt;setEnabled(false);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;BaudBox-&gt;setEnabled(false);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;BitNumBox-&gt;setEnabled(false);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;ParityBox-&gt;setEnabled(false);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;StopBox-&gt;setEnabled(false);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;openButton-&gt;setText(tr("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关闭串口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"));  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;sendButton-&gt;setEnabled(true);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>连接信号槽  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QObject::connect(serial, &amp;QSerialPort::readyRead, this, &amp;MainWindow::Read_Data);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    else  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关闭串口  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serial-&gt;clear();  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        serial-&gt;close();  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        serial-&gt;deleteLater();  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>恢复设置使能  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ui-&gt;PortBox-&gt;setEnabled(true);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;BaudBox-&gt;setEnabled(true);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;BitNumBox-&gt;setEnabled(true);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;ParityBox-&gt;setEnabled(true);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;StopBox-&gt;setEnabled(true);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;openButton-&gt;setText(tr("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打开串口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"));  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ui-&gt;sendButton-&gt;setEnabled(false);  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>清空接受窗口  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void MainWindow::on_clearButton_clicked()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    ui-&gt;textEdit-&gt;clear();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>发送数据  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void MainWindow::on_sendButton_clicked()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    serial-&gt;write(ui-&gt;textEdit_2-&gt;toPlainText().toLatin1());  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>发送数据方法二</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>带</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Hex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>发送或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ASCII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void MainWindow::on_SendButton_clicked()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QString input=this-&gt;ui-&gt;SDendData-&gt;text();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QByteArray hexByte;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    if(input.isEmpty())  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        qDebug("no message\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    else  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        if(this-&gt;ui-&gt;HexSend-&gt;isChecked())  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>选中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>进制发送数据  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            hexByte=QString2Hex(input);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            myCom-&gt;write(hexByte);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        else  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            myCom-&gt;write(input.toAscii());  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    this-&gt;ui-&gt;SendNumber-&gt;display(input.size());  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>读取接收到的数据  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void MainWindow::Read_Data()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QByteArray buf;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    buf = serial-&gt;readAll();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>int byteLen = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serial-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&gt;bytesAvailable()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>； </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>返回串口缓冲区字节数  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    if(!buf.isEmpty())//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>如果数据不为空</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        QString str = ui-&gt;textEdit-&gt;toPlainText();  //l</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>继续联接之前的数据追加新的数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        str+=tr(buf);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        ui-&gt;textEdit-&gt;clear();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        ui-&gt;textEdit-&gt;append(str);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    buf.clear();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    /*if(this-&gt;ui-&gt;HexShow-&gt;isChecked())  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>如果是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>就以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>进制显示      </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   {         </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        this-&gt;ui-&gt;textEdit-&gt;setText(buf.toHex());            </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    } */</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>this-&gt;ui-&gt;ReceiveNumber-&gt;display(byteLen);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>可显示当前接收到了多少个数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>153864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>80594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="41463056"/>
+          <a:ext cx="5612422" cy="1780442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//main.c  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include "mainwindow.h"  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include &lt;QApplication&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>int main(int argc, char *argv[])  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QApplication a(argc, argv);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    MainWindow w;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    w.show();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    return a.exec();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468926</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142241</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>153867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5978772" y="23651309"/>
+          <a:ext cx="3805700" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351691</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25006</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5861537" y="28208655"/>
+          <a:ext cx="3805700" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>120894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>659423</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3626827" y="14972567"/>
+          <a:ext cx="2542442" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>659423</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512884</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6169269" y="13855211"/>
+          <a:ext cx="3297115" cy="2234712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>foreach(A,B)//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中的东西都遍历一遍，遍历过程不断将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中的东西都赋值给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QStringList slt = {</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"abc"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"qwe"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"upo"}; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>foreach(QString s , slt ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    cout</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&lt;&lt;s&lt;&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>endl; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出结果为： </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>abc </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>qwe </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>upo</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131884</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6477000" y="31139423"/>
+          <a:ext cx="3297115" cy="8484578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QByteArray MainWindow::QString2Hex(QString str)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QByteArray senddata;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    qDebug("QString2Hex\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            int hexdata,lowhexdata;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            int hexdatalen = 0;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            int len = str.length();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            senddata.resize(len/2);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            char lstr,hstr;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            for(int i=0; i&lt;len; )  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                hstr=str[i].toAscii();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                if(hstr == ' ')  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                {  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    i++;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    continue;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                i++;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                if(i &gt;= len)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    break;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                lstr = str[i].toAscii();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                hexdata = ConvertHexChar(hstr);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                lowhexdata = ConvertHexChar(lstr);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                if((hexdata == 16) || (lowhexdata == 16))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    break;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                else  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    hexdata = hexdata*16+lowhexdata;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                i++;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                senddata[hexdatalen] = (char)hexdata;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                hexdatalen++;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            senddata.resize(hexdatalen);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            return senddata;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>/* </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>函数功能：将单个字符串转换为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>hex </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>*/  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>char MainWindow::ConvertHexChar(char ch)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    qDebug("ConvertHexChar\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    if((ch &gt;= '0') &amp;&amp; (ch &lt;= '9'))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                return ch-0x30;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            else if((ch &gt;= 'A') &amp;&amp; (ch &lt;= 'F'))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                return ch-'A'+10;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            else if((ch &gt;= 'a') &amp;&amp; (ch &lt;= 'f'))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                return ch-'a'+10;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            else return (-1);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>80595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593480</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>43960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29308" y="32795307"/>
+          <a:ext cx="4696557" cy="4344865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593480</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256442</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>62278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4725865" y="34077519"/>
+          <a:ext cx="1729154" cy="890221"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -2412,10 +6341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2573,9 +6503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
@@ -2619,6 +6550,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:A49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
+      <c r="A44" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -7,27 +7,25 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="字符的历史" sheetId="2" r:id="rId1"/>
-    <sheet name="QString的转换" sheetId="1" r:id="rId2"/>
-    <sheet name="串口的操作" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
+    <sheet name="字符的历史" sheetId="2" r:id="rId2"/>
+    <sheet name="QString的转换" sheetId="1" r:id="rId3"/>
+    <sheet name="输入和输出控件" sheetId="5" r:id="rId4"/>
+    <sheet name="串口的操作" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 Linux中文中文编码和Unicode编码转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 使用QTextCodec类实现编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,6 +277,18 @@
     <t>3 串口例程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TextBrowser文本显示控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Qt使用命令行进行编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 使用QTextCodec类实现中文转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -452,6 +462,372 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="249117"/>
+          <a:ext cx="5612422" cy="1897672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编译过程：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. qmake -project  =&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成与与文件夹同名的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.pro</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>工程文件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编辑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.pro</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件增加如下代码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>greaterThan(QT_MAJOR_VERSION,4):QT += widgets</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.qmake =&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Makefile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>相关文件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.mingw32-make  =&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成目标代码</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.ui</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件进行编译</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>uic -o </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>目标文件名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.h </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>源文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.ui  =&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ui</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.h</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1345,7 +1721,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1592,13 +1968,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1609,8 +1985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4337539"/>
-          <a:ext cx="5612422" cy="3048000"/>
+          <a:off x="0" y="4396153"/>
+          <a:ext cx="5612422" cy="5077557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1638,13 +2014,53 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>/ QString(Unicode) ‐&gt; std::string (GBK)  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>static string FromUnicode(const QString&amp; qstr)  </a:t>
+            <a:t>/ /Unicode ‐&gt; GBK  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Unicode2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GBK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QByteArray str</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1662,25 +2078,55 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    if(!pCodec) return "";  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    QByteArray arr = pCodec‐&gt;fromUnicode(qstr);  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    string cstr = arr.data(); </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>     return cstr;  </a:t>
+            <a:t>    if(!pCodec) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        return ""; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      QByteArray arr = pCodec‐&gt;fromUnicode(str);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      string cstr = arr.data(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      return cstr;  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1695,37 +2141,115 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t> // std::string (GBK) ‐&gt; QString(Unicode)  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>static QString ToUnicode(const string&amp; cstr)  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>{  QTextCodec* pCodec = QTextCodec::codecForName("gb2312");  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>if(!pCodec) return "";  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>QString qstr = pCodec‐&gt;toUnicode(cstr.c_str(), cstr.length()); </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t> return qstr;  </a:t>
+            <a:t> //  GBK ‐&gt; Unicode  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QString </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> GBK2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Unicode(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QByteArray str</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QTextCodec* pCodec = QTextCodec::codecForName("gb2312");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    if(!pCodec)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>       return "";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>   {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QString qstr = pCodec‐&gt;toUnicode(str); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>return qstr;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      }  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1749,15 +2273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>29309</xdr:rowOff>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161192</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1768,7 +2292,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="7825155"/>
+          <a:off x="14654" y="10023232"/>
           <a:ext cx="5671038" cy="3209191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2148,7 +2672,185 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="249116"/>
+          <a:ext cx="5612422" cy="1296866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>追加新的一行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行完成会自动另起一行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ui-&gt;textBrowser&gt;append(str);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>在字符末尾追加</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ui-&gt;textBrowser-&gt;insertPlainText(str);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4886,11 +5588,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>int byteLen = </a:t>
+            <a:t>    //int byteLen = </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -5029,16 +5727,11 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t>    } */</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>     //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>this-&gt;ui-&gt;ReceiveNumber-&gt;display(byteLen);//</a:t>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     //this-&gt;ui-&gt;ReceiveNumber-&gt;display(byteLen);//</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -6341,10 +7034,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="24" s="1" customFormat="1" ht="18.75"/>
+    <row r="44" s="5" customFormat="1" ht="20.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -6355,142 +7078,142 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6501,13 +7224,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6517,7 +7240,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
@@ -6532,65 +7255,12 @@
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
-      <c r="A44" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:A49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
-      <c r="A1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
-      <c r="A44" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A49" s="1" t="s">
-        <v>37</v>
+    <row r="57" spans="1:1" s="5" customFormat="1" ht="20.25">
+      <c r="A57" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6603,6 +7273,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="24" s="1" customFormat="1" ht="18.75"/>
+    <row r="44" s="5" customFormat="1" ht="20.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:A49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
+      <c r="A44" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>3 使用QTextCodec类实现中文转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qstring的常用函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2669,6 +2673,2037 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>43960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>432289</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13825902"/>
+          <a:ext cx="5942135" cy="18515136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> QString str1,str2;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//====================================================================</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>拼接</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后拼接</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str1.append(str2);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>加到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后面</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>前拼接</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str1.prepend(str2);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>加到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>前面</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从中间插入</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString str = "Meal";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str.insert(1, QString("ontr"));// str == "Montreal"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//====================================================================</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>截取</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>左截取</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString x = "Pineapple";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString y = x.left(4);      // y == "Pine"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>右截取</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString x = "Pineapple";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString y=x.right(5);       //y==apple</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从中间截取</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str1.mid(1,2)  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从索引</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>开始，结果为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>截取或填充  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString s = "apple";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString t = s.leftJustified(8, '.');    // t == "apple..."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//====================================================================</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>尾删</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString str("LOGOUT\r\n");//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从尾部删除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>个字符，返回剩余字符</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str.chop(2);// str == "LOGOUT"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>头删</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString str("LOGOUT\r\n");//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从尾部删除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>个字符，返回剩余字符</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str.right(2);// str == "GOUT\r\n"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从中间删</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString s = "Montreal";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  s.remove(1, 4);    // s == "Meal"  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>清空</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString s = "apple";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  s.clear();            //s==""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>填充</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString str = "Berlin";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str.fill('z');        // str == "zzzzzz"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str.fill('A', 2);// str == "AA"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>替换</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString x = "Say yes!";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString y = "no";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  x.replace(4, 3, y);    // x == "Say no!"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重复</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString str("ab");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str.repeated(4);            // returns "abababab"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字符数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int nToalLenth = string.size();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>索引值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Qstring string= jachchen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is good.</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int nIndex = string.indexOf("is");//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>检测字符串是否包含</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>is,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不存在返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>该返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以指定字符串为分割符，进行分割</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回一个或多个分割后的值</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString str;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString csv = "forename,middlename,surname,phone";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString path = "/usr/local/bin/myapp"; // First field is empty</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString::SectionFlag flag = QString::SectionSkipEmpty;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str = csv.section(',', 2, 2);   // str == "surname"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str = path.section('/', 3, 4);  // str == "bin/myapp"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str = path.section('/', 3, 3, flag); // str == "myapp" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果索引值是负数，则从右到左取值</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>str = csv.section(',', -3, -2);  // str == "middlename,surname"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str = path.section('/', -1); // str == "myapp" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QStringList</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString str = "a,,b,c";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QStringList list1 = str.split(',');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // list1: [ "a", "", "b", "c" ]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>也就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list1.at(1)=a ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list1.at(3)=b.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QStringList list2 = str.split(',', QString::SkipEmptyParts);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  // list2: [ "a", "b", "c" ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>运用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>split </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将字符竖向排列</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString strText = QStringLiteral("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一去二三里，烟村四五家。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   pLabel-&gt;setText(strText.split("",          QString::SkipEmptyParts).join("\n"));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   pLabel-&gt;setAlignment(Qt::AlignCenter);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>去除全部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>witeSpace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>符号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'\t', '\n', '\v', '\f', '\r', and ' '.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  QString str = "  lots\t of\nwhitespace\r\n ";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str = str.simplified();    // str == "lots of whitespace";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>去除首尾</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>whiteSpace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>符号</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString str = "  lots\t of\nwhitespace\r\n ";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  str = str.trimmed();      // str == "lots\t of\nwhitespace"  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>从字符串的两端删除空白符，使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>trimmed();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QString str = " white man ";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QString str2 = str.trimmed();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>结果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>str2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>为“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>white man”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//===================================================================  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>判断字符串是否以某物开始或者结束</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>以某物开始，使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>startsWith()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>函数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QString str = "http:www.baidu.com"; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>int i = str.startsWith("http:");</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>结果为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>i = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>以某物结束，使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>endsWith()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>函数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QString str = "http:www.baidu.com"; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>int i = str.endsWith("com");</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>结果为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>i = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220540</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>148408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6081346" y="24999462"/>
+          <a:ext cx="4470156" cy="4771696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161192</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26875154"/>
+          <a:ext cx="3604846" cy="1465385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6338,287 +8373,207 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>QByteArray MainWindow::QString2Hex(QString str)  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>{  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    QByteArray senddata;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    qDebug("QString2Hex\n");  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            int hexdata,lowhexdata;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            int hexdatalen = 0;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            int len = str.length();  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            senddata.resize(len/2);  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            char lstr,hstr;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            for(int i=0; i&lt;len; )  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            {  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                hstr=str[i].toAscii();  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                if(hstr == ' ')  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                {  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                    i++;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                    continue;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                }  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                i++;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                if(i &gt;= len)  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                    break;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                lstr = str[i].toAscii();  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                hexdata = ConvertHexChar(hstr);  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                lowhexdata = ConvertHexChar(lstr);  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                if((hexdata == 16) || (lowhexdata == 16))  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                    break;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                else  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                    hexdata = hexdata*16+lowhexdata;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                i++;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                senddata[hexdatalen] = (char)hexdata;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                hexdatalen++;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            }  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            senddata.resize(hexdatalen);  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            return senddata;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>}  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>/* </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>QByteArray serial_window::QString2Hex(QString str)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    QByteArray senddata;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>函数功能：将单个字符串转换为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>hex </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>*/  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>char MainWindow::ConvertHexChar(char ch)  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>{  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    qDebug("ConvertHexChar\n");  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    if((ch &gt;= '0') &amp;&amp; (ch &lt;= '9'))  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                return ch-0x30;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            else if((ch &gt;= 'A') &amp;&amp; (ch &lt;= 'F'))  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                return ch-'A'+10;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            else if((ch &gt;= 'a') &amp;&amp; (ch &lt;= 'f'))  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>                return ch-'a'+10;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>            else return (-1);  </a:t>
+            <a:t>、、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>qDebug("QString2Hex\n");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            int hexdata,lowhexdata;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            int hexdatalen = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            int len = str.length();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            senddata.resize(len/2);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            char lstr,hstr;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            for(int i=0; i&lt;len; )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                hstr=str[i].toLatin1();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                if(hstr == ' ')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    i++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    continue;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                i++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                if(i &gt;= len)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                lstr = str[i].toLatin1();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                hexdata = ConvertHexChar(hstr);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                lowhexdata = ConvertHexChar(lstr);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                if((hexdata == 16) || (lowhexdata == 16))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                    hexdata = hexdata*16+lowhexdata;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                i++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                senddata[hexdatalen] = (char)hexdata;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                hexdatalen++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            senddata.resize(hexdatalen);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            return senddata;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6629,6 +8584,72 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>char serial_window::ConvertHexChar(char ch)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    qDebug("ConvertHexChar\n");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>    if((ch &gt;= '0') &amp;&amp; (ch &lt;= '9'))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                return ch-0x30;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            else if((ch &gt;= 'A') &amp;&amp; (ch &lt;= 'F'))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                return ch-'A'+10;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            else if((ch &gt;= 'a') &amp;&amp; (ch &lt;= 'f'))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                return ch-'a'+10;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>            else return (-1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6638,8 +8659,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>80595</xdr:rowOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -6654,8 +8675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29308" y="32795307"/>
-          <a:ext cx="4696557" cy="4344865"/>
+          <a:off x="29308" y="33337500"/>
+          <a:ext cx="4663206" cy="4248098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6699,13 +8720,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>593480</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:rowOff>14657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>256442</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>62278</xdr:rowOff>
+      <xdr:rowOff>140221</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6716,8 +8737,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4725865" y="34077519"/>
-          <a:ext cx="1729154" cy="890221"/>
+          <a:off x="4692514" y="34482019"/>
+          <a:ext cx="1712480" cy="979530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7227,10 +9248,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7261,6 +9282,11 @@
     <row r="57" spans="1:1" s="5" customFormat="1" ht="20.25">
       <c r="A57" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="5" customFormat="1" ht="20.25">
+      <c r="A79" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7306,8 +9332,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O224" sqref="O224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>Qstring的常用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QString以16位 Uniode进行编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1731,13 +1735,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>79864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1853,13 +1857,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1971,13 +1975,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2278,13 +2282,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>36636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>43961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2677,14 +2681,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>43960</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>432289</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2695,8 +2699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="13825902"/>
-          <a:ext cx="5942135" cy="18515136"/>
+          <a:off x="0" y="14456018"/>
+          <a:ext cx="5942135" cy="19379714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4101,21 +4105,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>list1.at(1)=a ,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>list1.at(3)=b.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>list1.at(1)=a ,list1.at(3)=b.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -4601,13 +4592,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>220540</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>148408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4648,14 +4639,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161192</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>153867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4664,8 +4655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26875154"/>
-          <a:ext cx="3604846" cy="1465385"/>
+          <a:off x="0" y="27607846"/>
+          <a:ext cx="3604846" cy="1326175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9248,10 +9239,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L116" sqref="L116"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9259,33 +9250,38 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="5" customFormat="1" ht="20.25">
-      <c r="A57" s="5" t="s">
+    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25">
+      <c r="A59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="5" customFormat="1" ht="20.25">
-      <c r="A79" s="5" t="s">
+    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25">
+      <c r="A81" s="5" t="s">
         <v>40</v>
       </c>
     </row>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -4690,6 +4690,318 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6198577" y="168520"/>
+          <a:ext cx="5612422" cy="2967404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QString </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>常用转换：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. QString   -&gt;  c++   string   -&gt;  char *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      str.toStdString().data();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.QString    -&gt;    QByteArray</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    QString buf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = "123";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QByteArray  a  =  buf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> .toUtf8();  //UTF8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>格式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QByteArray  a  =  buf.text.toLocal8Bit(); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>本地编码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.QByteArray    -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   char *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QByteArray  a;  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     char *b = a.data();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.char *    -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QString </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    char *p = "abc";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    QString   c   = QString (p) ;</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9241,8 +9553,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,10 @@
     <t>QString以16位 Uniode进行编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2.Qt软件发布时解决依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -821,6 +825,93 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109902</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7326" y="2461846"/>
+          <a:ext cx="5612422" cy="512885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>打开命令提示符窗口，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>CD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>D:\test\release</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>，然后输入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>windeployqt xxx.exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>并回车</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:latin typeface="+mn-lt"/>
@@ -9360,8 +9451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9376,6 +9467,11 @@
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="24" s="1" customFormat="1" ht="18.75"/>
     <row r="44" s="5" customFormat="1" ht="20.25"/>
   </sheetData>
@@ -9553,7 +9649,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
@@ -8184,128 +8184,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>153864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>80594</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="41463056"/>
-          <a:ext cx="5612422" cy="1780442"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>//main.c  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>#include "mainwindow.h"  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>#include &lt;QApplication&gt;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>int main(int argc, char *argv[])  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>{  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    QApplication a(argc, argv);  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    MainWindow w;  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    w.show();  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>    return a.exec();  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>}  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Tahoma"/>
-            <a:ea typeface="Tahoma"/>
-            <a:cs typeface="Tahoma"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -9159,6 +9037,2621 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>144515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52552</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>78829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="41955981"/>
+          <a:ext cx="8933793" cy="17696796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>我的整合</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>#include "mainwindow.h"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>MainWindow::MainWindow(QWidget *parent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    : QMainWindow(parent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    serial1=new QSerialPort;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    serial2=new QSerialPort;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    serial_init(serial1,"COM1",9600,'n',8,1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    open_serial(serial1,Read_Data);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    serial_init(serial2,"COM3",115200,'n',8,1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    open_serial(serial2,Read_Data1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>    //close_serial(serial2);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>MainWindow::~MainWindow()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>/*******************************************************************</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>名称：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial_init</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>功能：串口初始化设置串口数据位，停止位和效验位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>* 入口参数：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>串口描述符</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>port_name:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>指定的串口号</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>baud_rate:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>波特率</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>parity:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>效验类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>取值为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>N=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>无校验位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>,E=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>偶校验</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>,O=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>奇校验</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>,S=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>空格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         data_bits:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>数据位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>取值为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>5,6,7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         stop_bit:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>停止位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>值为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>或者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>例子：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial_init(serial1,"COM1",115200,'N',8,1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>出口参数：正确返回为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>，错误返回为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*******************************************************************/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>void MainWindow::serial_init(QSerialPort *serial,QString port_name,int baud_rate,char parity,int data_bits,int stop_bit)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        serial-&gt;setPortName(port_name);   //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>指定串口名称</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial-&gt;setBaudRate(baud_rate);   //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置波特率</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>switch(data_bits)  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置数据位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>              case 8: serial-&gt;setDataBits(QSerialPort::Data8); break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>              case 7: serial-&gt;setDataBits(QSerialPort::Data7); break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>              case 6: serial-&gt;setDataBits(QSerialPort::Data6); break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>              case 5: serial-&gt;setDataBits(QSerialPort::Data5); break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>              default: break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        switch (parity)//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置校验位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 'n':</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 'N': //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>无奇偶校验位。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial-&gt;setParity(QSerialPort::NoParity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      //printf("N-");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 'o':</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 'O'://</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置为奇校验</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial-&gt;setParity(QSerialPort::OddParity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                     //printf("O-");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 'e':</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 'E'://</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置为偶校验</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial-&gt;setParity(QSerialPort::EvenParity);;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      //printf("E-");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 's':</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 'S': //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置为空格</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial-&gt;setParity(QSerialPort::SpaceParity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      //printf("S-");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>             default:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      //printf("\nParity bit[%c] is not support!\n",parity);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>                      break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>         }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        switch(stop_bit)//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置停止位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 1: serial-&gt;setStopBits(QSerialPort::OneStop); break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            case 2: serial-&gt;setStopBits(QSerialPort::TwoStop); break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>            default: break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        serial-&gt;setFlowControl(QSerialPort::NoFlowControl); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>设置流控制设置为否</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>/*******************************************************************</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>名称：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>open_serial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>功能：打开串口并指定接收槽函数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>* 入口参数：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>serial:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>串口描述符</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>MainWindow::*func:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>接收的槽函数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         例子：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>open_serial(serial1,Read_Data);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>出口参数：正确返回为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>，错误返回为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>*******************************************************************/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>void MainWindow::open_serial(QSerialPort *serial, void (MainWindow::*func)())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        serial-&gt;open(QIODevice::ReadWrite); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>打开串口</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>显示串口属性</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//QSerialPortInfo info(serial-&gt;portName());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        //qDebug() &lt;&lt; "Name : " &lt;&lt; info.portName();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        //qDebug() &lt;&lt; "Description : " &lt;&lt; info.description();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        //qDebug() &lt;&lt; "Manufacturer: " &lt;&lt; info.manufacturer();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>连接信号槽</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>QObject::connect(serial, &amp;QSerialPort::readyRead, this, func);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>接收槽函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>void MainWindow::Read_Data()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>  QByteArray buf;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>  buf = serial1-&gt;readAll();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>  qDebug()&lt;&lt;"COM1"&lt;&lt;buf;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>接收槽函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>void MainWindow::Read_Data1()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>  QByteArray buf;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>  buf = serial2-&gt;readAll();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>  qDebug()&lt;&lt;"COM2"&lt;&lt;buf;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>关闭串口</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>void MainWindow::close_serial(QSerialPort *serial)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        serial-&gt;clear();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        serial-&gt;close();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>        serial-&gt;deleteLater();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9451,7 +11944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -9736,8 +12229,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O224" sqref="O224"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -305,8 +305,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,74 +397,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1249,7 +1181,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="A0A0A0"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -9044,13 +8976,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>144515</xdr:rowOff>
+      <xdr:rowOff>144514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>52552</xdr:colOff>
-      <xdr:row>346</xdr:row>
-      <xdr:rowOff>78829</xdr:rowOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9061,8 +8993,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="41955981"/>
-          <a:ext cx="8933793" cy="17696796"/>
+          <a:off x="0" y="41955980"/>
+          <a:ext cx="8933793" cy="19076279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11611,6 +11543,113 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>void </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>MainWindow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>::</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>_send()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   QByteArray send_char =  "hallo word";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>   serial-&gt;write(send_char);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -11650,6 +11689,16 @@
             <a:cs typeface="Tahoma"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -11658,14 +11707,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -11732,6 +11781,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11766,6 +11816,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11941,32 +11992,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.75"/>
-    <row r="44" s="5" customFormat="1" ht="20.25"/>
+    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11976,7 +12027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
@@ -11984,147 +12035,147 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75">
+    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -12138,7 +12189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A81"/>
   <sheetViews>
@@ -12146,42 +12197,42 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>40</v>
       </c>
@@ -12195,27 +12246,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="24" s="1" customFormat="1" ht="18.75"/>
-    <row r="44" s="5" customFormat="1" ht="20.25"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12225,46 +12276,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -12278,13 +12329,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="QString的转换" sheetId="1" r:id="rId3"/>
     <sheet name="输入和输出控件" sheetId="5" r:id="rId4"/>
     <sheet name="串口的操作" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="多线程" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +300,10 @@
   </si>
   <si>
     <t>2.Qt软件发布时解决依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qt多线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11649,6 +11654,562 @@
             <a:ea typeface="Tahoma"/>
             <a:cs typeface="Tahoma"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="316347"/>
+          <a:ext cx="7726366" cy="3493653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>设定一个类继承与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>Qobject</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>类中可以设置一个线程函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>可以任意起一个名字，而且只有一个是线程函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>513641</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26275" y="766321"/>
+          <a:ext cx="2536883" cy="2156868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>模型：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>class</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> MyThread : public Qobject</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>      void myTimer()//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>线程处理函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>       {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>            while(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>            { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>               emit mysignal();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>      }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>599089</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3331779" y="767635"/>
+          <a:ext cx="4971393" cy="2924124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>主函数：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>创建线程对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>不能指定父对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>创建一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>Qthread</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>子线程对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>把自定义线程类加到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Qthread</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>子线</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>程</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动子线程：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    thread.start();//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>该步只是把线程开启了，并没有启动线程处理函数。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程处理函数的启动，必须通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>signal-slot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的方式启动</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 	  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>main.h</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>MyThread</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> *myT;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>main.c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>myT = new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MyThread</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Qthread </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread =new Qthread(this);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12229,8 +12790,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12279,6 +12840,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.75"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -11674,8 +11674,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>262758</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>157655</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11687,7 +11687,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="51289" y="316347"/>
-          <a:ext cx="7726366" cy="3493653"/>
+          <a:ext cx="7726366" cy="4130843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11764,15 +11764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>26275</xdr:colOff>
+      <xdr:colOff>131379</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>17459</xdr:rowOff>
+      <xdr:rowOff>50304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>513641</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>433551</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
+      <xdr:rowOff>157655</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11783,8 +11783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="26275" y="766321"/>
-          <a:ext cx="2536883" cy="2156868"/>
+          <a:off x="131379" y="799166"/>
+          <a:ext cx="3034862" cy="2156868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11835,7 +11835,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>      void myTimer()//</a:t>
+            <a:t>      Q_OBJECT//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>使用信号和槽必须要有这个宏，否  则会报错</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>       void myTimer()//</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
@@ -11860,6 +11871,17 @@
             <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
             <a:t>            { </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>               QThread::sleep(1);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>每隔一秒发一个信号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -11902,15 +11924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>599089</xdr:colOff>
+      <xdr:colOff>513692</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>18773</xdr:rowOff>
+      <xdr:rowOff>25341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>105103</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>39414</xdr:rowOff>
+      <xdr:colOff>19706</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11921,8 +11943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3331779" y="767635"/>
-          <a:ext cx="4971393" cy="2924124"/>
+          <a:off x="3246382" y="774203"/>
+          <a:ext cx="4971393" cy="3561313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12151,6 +12173,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>signals:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>             void startThread();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
         </a:p>
         <a:p>
@@ -12180,14 +12214,35 @@
             </a:rPr>
             <a:t>;</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>第一步</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Qthread </a:t>
           </a:r>
           <a:r>
@@ -12204,7 +12259,40 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>thread =new Qthread(this);</a:t>
+            <a:t>thread =new Qthread(this);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>第二步</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>connect( this , &amp;startThread ,myT ,myTimer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>emit startThread();</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
         </a:p>
@@ -12790,7 +12878,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -12842,8 +12930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
@@ -310,8 +310,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,74 +402,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1254,7 +1186,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="A0A0A0"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -11669,13 +11601,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>51289</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>79864</xdr:rowOff>
+      <xdr:rowOff>79863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>262758</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45983</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>453258</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11686,8 +11618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="51289" y="316347"/>
-          <a:ext cx="7726366" cy="4130843"/>
+          <a:off x="51289" y="316346"/>
+          <a:ext cx="11332728" cy="10778637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11749,13 +11681,668 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>创建并打开线程处理函数</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>线程号的查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>qDebug()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> &lt;&lt; "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>线程号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>" &lt;&lt; QThread :: currentThread();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>线程是否在运行的判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>用于启动和关闭线程时进行一个判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>     if(thread -&gt; isRunning() == 1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>关闭线程：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                      a.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>当窗口关闭时子线程仍然在运行，退出时要做处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>(quit()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>是退出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>wait()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>是回收资源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>                      b.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>quit()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>线程函数处理完成时才会去执行，所以有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>while</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>循环时是处理不完的没法执行退出函数，所以要在</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                          while</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>循环中加入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>flag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>标志位进行处理。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                      c.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当点击关闭按钮时主窗口关闭但子线程并没有关闭，增加一个信号槽进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>quit()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wait()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注意：线程处理函数内部，不允许操作图形界面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>比如操作弹出一个对话框</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所以在后台运行线程适用于进行纯数据处理。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6.connect()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的第五个参数在多线程中才有意义：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>connect( this , &amp;Mywidget :: startThread ,myT ,&amp;MyThread::myTimer , </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QT::DirectConnection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QT::QueuedConnection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> )</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>该参数表示连接方式：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>默认：自动进行判断，如果是多线程默认使用队列方式，单线程时默认使用直接方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>队列：槽函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MyThread::myTimer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>所在的线程和接收者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(myT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>相同</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>直接：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>槽函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(MyThread::myTimer)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所在的线程和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(this)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>相同</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>相当于定义槽函数是属于子线程还是属于主线程。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>         </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11764,557 +12351,1532 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>131379</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50304</xdr:rowOff>
+      <xdr:colOff>118241</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>433551</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157655</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203637</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>32844</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="组合 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="131379" y="799166"/>
-          <a:ext cx="3034862" cy="2156868"/>
+          <a:off x="118241" y="4096783"/>
+          <a:ext cx="10332982" cy="8193751"/>
+          <a:chOff x="118241" y="4096783"/>
+          <a:chExt cx="10332982" cy="8193751"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>模型：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>class</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t> MyThread : public Qobject</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>      Q_OBJECT//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>使用信号和槽必须要有这个宏，否  则会报错</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>       void myTimer()//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>线程处理函数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>       {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>            while(1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>            { </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>               QThread::sleep(1);//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>每隔一秒发一个信号</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>               emit mysignal();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>      }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>513692</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19706</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3246382" y="774203"/>
-          <a:ext cx="4971393" cy="3561313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>主函数：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>创建线程对象</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>不能指定父对象</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>2.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>创建一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>Qthread</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>子线程对象</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>3.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>把自定义线程类加到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Qthread</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>子线</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>程</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>启动子线程：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    thread.start();//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>该步只是把线程开启了，并没有启动线程处理函数。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>线程处理函数的启动，必须通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>signal-slot</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>的方式启动</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> 	  </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>main.h</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>MyThread</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t> *myT;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>signals:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>             void startThread();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>main.c</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>myT = new </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MyThread</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>第一步</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Qthread </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>thread =new Qthread(this);//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>第二步</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>connect( this , &amp;startThread ,myT ,myTimer)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>emit startThread();</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="组合 2"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="118241" y="4096783"/>
+            <a:ext cx="10332982" cy="8193751"/>
+            <a:chOff x="183931" y="1344388"/>
+            <a:chExt cx="10332982" cy="6065404"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3239812" y="1352271"/>
+              <a:ext cx="7277101" cy="6057521"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US"/>
+                <a:t>主函数：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>1.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US"/>
+                <a:t>创建线程对象</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US"/>
+                <a:t>不能指定父对象</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>2.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>创建一个</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>Qthread</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>子线程对象</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>3.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US"/>
+                <a:t>把自定义线程类加到</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Qthread</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>子线</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>启动子线程：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    thread.start();//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>该步只是把线程开启了，并没有启动线程处理函数。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>线程处理函数的启动，必须通过</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>signal-slot</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>的方式启动，如果直接调用将导致线程处理函数和主线程在同一个线程，线程号相同</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>导致死循环</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 	  </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>main.h</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>#include</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t> "</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>MyThread .h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>#include&lt;QThread&gt;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>private:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>MyThread</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t> *myT;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Qthread </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>thread ;</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>signals:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>             void </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>startThread()</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>main.c</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>myT = new </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>MyThread</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>;//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>第一步</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>不能指定父对象因为会导致不能</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>move)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>thread =new Qthread(this);//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>第二步创建子线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>myT -&gt; moveToThread(thread);//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>第三步将自定义线程加入到子线程中去</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>关联</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>connect( this , &amp;Mywidget :: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>startThread</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ,myT ,&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>MyThread::</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>myTimer</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>当接收到打开线程的信号就去执行线程处理函数</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>线程的启动</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>myT -&gt;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> stopflag(0);</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>thread.start();//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>该步只是把线程开启了，并没有启动线程处理函数。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>emit </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>startThread()</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>;//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>发送打开线程处理函数的信号</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US"/>
+                <a:t>线程的关闭</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>myT -&gt;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t> stopflag(1);//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>将标志位设置为</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>让子线程退出循环</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>thread -&gt;quit();//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>退出线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>thread -&gt;wait();//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>回收资源</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US"/>
+                <a:t>关闭窗口时进线程的关闭</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>connect( this,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t> &amp;MyWidget :: destroyed ,this , </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>&amp;MyWidget ::dealclose </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>void MyWidget ::dealclose()</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>{</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>myT -&gt;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> stopflag(1);//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>将标志位设置为</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>让子线程退出循环</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    thread -&gt;quit();//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>退出线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>     thread -&gt;wait();//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>回收资源</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>      delete myT;//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>释放内存空间</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>}</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="183931" y="1344388"/>
+              <a:ext cx="3028293" cy="6058836"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US"/>
+                <a:t>模型：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>MyThread .h</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN"/>
+                <a:t>class</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t> MyThread : public Qobject</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>{</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>      Q_OBJECT//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>使用信号和槽必须要有这个宏，否  则会报错</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>public:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>           void stopflag( bool flag= ture)//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>退出线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>           {</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>               isStop = flag;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>            }</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>       void myTimer()//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>线程处理函数</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>       {</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>            while( isStop == 0 )</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>            { </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>               QThread::sleep(1);//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>每隔一秒发一个信号</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>               emit mysignal();//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>发射一个信号给主线进</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>                                               </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>行处理</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>               if ( isStop == 1 )</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>               {</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>                   break;//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>如果标志位为</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                <a:t>退出循环</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>                }</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>            }</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                <a:t>        }</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>signals:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+                <a:t>            void mysignal();</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+                <a:t>//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+                <a:t>对</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+                <a:t>while()</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+                <a:t>退出进行标志位处理</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+                <a:t>private:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+                <a:t>             bool isStop = 0;//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+                <a:t>退出标志位</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4007068" y="8388569"/>
+            <a:ext cx="1018189" cy="709449"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="873671" y="6647793"/>
+            <a:ext cx="5393122" cy="1556845"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -12381,6 +13943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12415,6 +13978,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12590,32 +14154,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.75"/>
-    <row r="44" s="5" customFormat="1" ht="20.25"/>
+    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12625,7 +14189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
@@ -12633,147 +14197,147 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75">
+    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -12787,7 +14351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A81"/>
   <sheetViews>
@@ -12795,42 +14359,42 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>40</v>
       </c>
@@ -12844,27 +14408,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="24" s="1" customFormat="1" ht="18.75"/>
-    <row r="44" s="5" customFormat="1" ht="20.25"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12874,46 +14438,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -12927,24 +14491,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.75"/>
+    <row r="22" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12954,13 +14518,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -11958,26 +11958,34 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                      d.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>注意：线程处理函数内部，不允许操作图形界面</a:t>
+            <a:t>当线程关闭后如果不再次进行</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(</a:t>
+            <a:t>thread.start()</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>比如操作弹出一个对话框</a:t>
+            <a:t>操作，光</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>),</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>所以在后台运行线程适用于进行纯数据处理。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>emit startThreadsignal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>也是无法再次打开一个线程的。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -12018,12 +12026,24 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注意：线程处理函数内部，不允许操作图形界面</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>6.connect()</a:t>
+            <a:t>(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的第五个参数在多线程中才有意义：</a:t>
+            <a:t>比如操作弹出一个对话框</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所以在后台运行线程适用于进行纯数据处理。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -12045,64 +12065,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>connect( this , &amp;Mywidget :: startThread ,myT ,&amp;MyThread::myTimer , </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>QT::DirectConnection</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>或</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>QT::QueuedConnection</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> )</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -12125,17 +12087,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>  1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>该参数表示连接方式：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>6.connect()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的第五个参数在多线程中才有意义：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -12156,14 +12114,64 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>                                                 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>默认：自动进行判断，如果是多线程默认使用队列方式，单线程时默认使用直接方式</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>connect( this , &amp;Mywidget :: startThread ,myT ,&amp;MyThread::myTimer , </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QT::DirectConnection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QT::QueuedConnection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> )</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -12184,41 +12192,16 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>                                                 </a:t>
+            <a:t>  1.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>队列：槽函数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MyThread::myTimer</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>所在的线程和接收者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>(myT)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>相同</a:t>
+            <a:t>该参数表示连接方式：</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
@@ -12246,72 +12229,9 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>直接：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>槽函数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(MyThread::myTimer)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>所在的线程和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>发送</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(this)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>相同</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>默认：自动进行判断，如果是多线程默认使用队列方式，单线程时默认使用直接方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -12332,6 +12252,154 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>队列：槽函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MyThread::myTimer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>所在的线程和接收者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(myT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>相同</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                                                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>直接：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>槽函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(MyThread::myTimer)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所在的线程和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(this)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>相同</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>   2.</a:t>
           </a:r>
@@ -12351,15 +12419,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>118241</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>37162</xdr:rowOff>
+      <xdr:colOff>131379</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>203637</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>32844</xdr:rowOff>
+      <xdr:colOff>216775</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -12368,7 +12436,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="118241" y="4096783"/>
+          <a:off x="131379" y="4431800"/>
           <a:ext cx="10332982" cy="8193751"/>
           <a:chOff x="118241" y="4096783"/>
           <a:chExt cx="10332982" cy="8193751"/>
@@ -12667,16 +12735,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>MyThread .h</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
+                <a:t>MyThread .h"</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN"/>
             </a:p>
@@ -14494,8 +14553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="输入和输出控件" sheetId="5" r:id="rId4"/>
     <sheet name="串口的操作" sheetId="4" r:id="rId5"/>
     <sheet name="多线程" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="定时器" sheetId="8" r:id="rId7"/>
+    <sheet name="json解析" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,12 +307,20 @@
     <t>Qt多线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Qt定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qt json解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +411,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -927,29 +1004,53 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ASCII</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>控制码</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>(0-31)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>(0x00-0x1F)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -989,29 +1090,53 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ASCII</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>可打印的字符</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>(32-127)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>(0x20-0x7F)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1051,44 +1176,80 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ASCII</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>扩展字符集</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>(Latin-1)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ISO</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> 8895-1</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>(128-255)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>(0x80-0xFF)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1186,7 +1347,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:sysClr val="window" lastClr="A0A0A0"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -12667,16 +12828,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>MyThread .h</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
+                <a:t>MyThread .h"</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN"/>
             </a:p>
@@ -13868,15 +14020,1410 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>453258</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="317988"/>
+          <a:ext cx="11374769" cy="10821007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>、  首先创建一个定时器类的对象</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>QTimer *timer = new QTimer(this);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>、  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>timer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>超时后会发出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>timeout()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>信号，所以在创建好定时器对象后给其建立信号与槽</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>connect(timer, SIGNAL(timeout()), this, SLOT(onTimeout()));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>、  在需要开启定时器的地方调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void QTimer::start ( int msec );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>函数参数也是毫秒级别；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>timer-&gt;start(msec );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>、 在自己的超时槽函数里面做超时处理。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98536</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32846</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="98536" y="1856765"/>
+          <a:ext cx="3350172" cy="6630338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>#ifndef _MYTIMER_H</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>#define _MYTIMER_H</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>#include &lt;QObject&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>class QTimer;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>class MyTimer : public QObject</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Q_OBJECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>public:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>             MyTimer(QObject* parent = NULL);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>            ~MyTimer();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>public slots:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                 void handleTimeout();  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>超时处理函数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>private:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>               QTimer *m_pTimer;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>#endif //_MYTIMER_H</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165539</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479533</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>126124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3581401" y="1825234"/>
+          <a:ext cx="5096201" cy="6630338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include "mytimer.h"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#include&lt;QDebug&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>include &lt;QTimer&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>#define TIMER_TIMEOUT (5*1000)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>MyTimer::MyTimer(QObject *parent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>:QObject(parent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    m_pTimer = new QTimer(this);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    connect(m_pTimer, SIGNAL(timeout()), this,SLOT(handleTimeout()));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     m_pTimer-&gt;start(TIMER_TIMEOUT);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>MyTimer::~MyTimer()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void MyTimer::handleTimeout()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     qDebug()&lt;&lt;"Enter timeout processing function\n";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     if(m_pTimer-&gt;isActive())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>          m_pTimer-&gt;stop();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>453258</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="316346"/>
+          <a:ext cx="11332728" cy="12828154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>要解析的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>的格式为：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    "rootpath": "001",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    "usernum": 111,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    "childdep": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            "depid": "11",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            "depnum": 20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            "depid": "15",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            "depnum": 23</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1694794" y="339333"/>
+          <a:ext cx="8342586" cy="12792029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>std::map&lt;std::wstring, int&gt; part_depid_num;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>这里是吧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>的数据直接写成了字符串的形式来完成</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>QByteArray data = QByteArray("{\"rootpath\":\"001\",\"usernum\":111,\"childdep\":[{\"depid\":\"11\",\"depnum\":20},{\"depid\":\"15\",\"depnum\":23}]}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>判断字符串转化为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>QJsonDocument  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>是否出现了错误</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>QJsonParseError jsonError;//Qt5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>新类 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>QJsonDocument json = QJsonDocument::fromJson(data, &amp;jsonError);//Qt5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>新类</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>if (jsonError.error == QJsonParseError::NoError)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>        if (json.isObject())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            QJsonObject rootObj = json.object();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            QString rootpath;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            int rootusernum;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>是否含有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>key  rootpath</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            if (rootObj.contains("rootpath"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>取出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>rootpath</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>的值</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>QJsonValue value = rootObj.value("rootpath");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>判断是否是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>string</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>类型</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>if (value.isString())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                    rootpath = value.toString();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            if (rootObj.contains("usernum"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>取出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>usernum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>的值</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>QJsonValue value = rootObj.value("usernum");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>判断是否为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>double</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>类型</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>if (value.isDouble())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                    rootusernum = value.toDouble();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            part_depid_num[rootpath.toStdWString()] = rootusernum;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            if (rootObj.contains("childdep"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                QJsonValue valueArray = rootObj.value("childdep");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>判断类型是否为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>array</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>，并且将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>array</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>遍历出来</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>if (valueArray.isArray())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                    QJsonArray jsonArray = valueArray.toArray();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                    for (int i = 0; i &lt; jsonArray.count();i++)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                        QJsonValue childValue = jsonArray[i];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                        if (childValue.isObject())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            QString child_depid;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            QString child_usernum;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            int child_usern;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            QJsonObject  childObject = childValue.toObject();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            if (childObject.contains("depid"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                QJsonValue valueJson = childObject.value("depid");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                if (valueJson.isString())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                    child_depid = valueJson.toString();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            if (childObject.contains("depnum"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                QJsonValue valueJson = childObject.value("depnum");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                if (valueJson.isDouble())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                    child_usern = valueJson.toDouble();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            if (child_usernum.isEmpty())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                                part_depid_num[child_depid.toStdWString()] = child_usern;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    //printf(QString::fromStdWString(part_depid_num.begin()-&gt;first).toStdString().c_str());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    std::map&lt;std::wstring, int&gt; ::iterator it;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    for (it = part_depid_num.begin(); it != part_depid_num.end();it++)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>        cout &lt;&lt; QString::fromStdWString(it-&gt;first).toStdString().c_str()&lt;&lt;endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="A0A0A0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -13943,7 +15490,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -13978,7 +15524,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14154,32 +15699,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" ht="18.75"/>
+    <row r="44" s="5" customFormat="1" ht="20.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14189,155 +15734,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="18.75">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="18.75">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -14351,7 +15896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A81"/>
   <sheetViews>
@@ -14359,42 +15904,42 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25">
       <c r="A59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25">
       <c r="A81" s="5" t="s">
         <v>40</v>
       </c>
@@ -14408,27 +15953,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="24" s="1" customFormat="1" ht="18.75"/>
+    <row r="44" s="5" customFormat="1" ht="20.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14438,7 +15983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
@@ -14446,38 +15991,38 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
       <c r="A44" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -14491,24 +16036,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" ht="18.75"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14518,15 +16063,53 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.75"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.75"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
@@ -12518,7 +12518,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>203637</xdr:colOff>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>32844</xdr:rowOff>
     </xdr:to>
@@ -12530,9 +12530,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="118241" y="4096783"/>
-          <a:ext cx="10332982" cy="8193751"/>
+          <a:ext cx="10510344" cy="8193751"/>
           <a:chOff x="118241" y="4096783"/>
-          <a:chExt cx="10332982" cy="8193751"/>
+          <a:chExt cx="10510344" cy="8193751"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -12543,9 +12543,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="118241" y="4096783"/>
-            <a:ext cx="10332982" cy="8193751"/>
+            <a:ext cx="10510344" cy="8193751"/>
             <a:chOff x="183931" y="1344388"/>
-            <a:chExt cx="10332982" cy="6065404"/>
+            <a:chExt cx="10510344" cy="6065404"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -12557,7 +12557,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3239812" y="1352271"/>
+              <a:off x="3417174" y="1352271"/>
               <a:ext cx="7277101" cy="6057521"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13649,7 +13649,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="183931" y="1344388"/>
-              <a:ext cx="3028293" cy="6058836"/>
+              <a:ext cx="3205656" cy="6058836"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13691,6 +13691,96 @@
                 </a:rPr>
                 <a:t>MyThread .h</a:t>
               </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>void myTimer(); </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>void stopflag( bool flag= ture);//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>退出线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>private: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>          bool </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>isStop</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 0;//</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>退出标志位</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" altLang="zh-CN"/>
@@ -15738,8 +15828,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15987,7 +16077,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -16039,7 +16129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>

--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="多线程" sheetId="7" r:id="rId6"/>
     <sheet name="定时器" sheetId="8" r:id="rId7"/>
     <sheet name="json解析" sheetId="9" r:id="rId8"/>
+    <sheet name="cJSON的解析" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,12 +479,12 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF15DBD6"/>
+      <color rgb="FF23F319"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -15505,6 +15506,4142 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>453258</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51289" y="316344"/>
+          <a:ext cx="11332728" cy="25033294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>要解析的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>的格式为：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> "mac": "84:f3:eb:b3:a7:05", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"number": 2,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> "value": </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        "name": "xuhongv",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        "age": 18,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        "blog": "https://blog.csdn.net/xh870189248"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    }, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"hexArry": [51, 15, 63, 22, 96]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_Parse( const char *value );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>开始识别一个字符串是否为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式，返回数值就是一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>，如果返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>则表示不是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式，否则就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_GetObjectItem( const cJSON * const object, const char * const string );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>从一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式数据剖析一个指定的字段的数据，返回数值就是一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>，如</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>果返回的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>则表示获取失败，否则获取成功！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_IsString(const cJSON * const item);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>从一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式数据判断是否为字符串类型，返回数值就是一个布尔值，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>果返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>则表示这个字段是字符串类型，否则不是！以此类推，其</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>他的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_IsBool()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0"/>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_IsNumber()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>都是一样的意思！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_GetArraySize(const cJSON *array);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>从一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式的数组数据获取该数组的长度。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_GetArrayItem(const cJSON *array, int index);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>从一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式的数组获取该数组的指定索引的元素，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>是下标。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_Print(const cJSON *item);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>返回一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式的数据，返回时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>char*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>类型，注意使用后要释放内存。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_free()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>即可！！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_Delete(cJSON *c);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>释放一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式的数据所占的内存，注意一般使用这个数据之后，释放</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>根节点即可！！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_AddStringToObject(object,name,s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    新增一个字符串类型字段到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>格式的数据！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>是字段，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>是数值。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>、 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON_AddItemToObject(cJSON *object, const char *string, cJSON *item);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>新增一个新的子节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>cJSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>到根节点！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+            <a:t>string</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
+            <a:t>是字段名字！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236484</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>105102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3652346" y="339332"/>
+          <a:ext cx="8342586" cy="22441839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的解析 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mac</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段字符串内容 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pMacAdress</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = cJSON_GetObjectItem(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pJsonRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "mac"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mac</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段是否</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>格式 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (pMacAdress) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (cJSON_IsString( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pMacAdress</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ))</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mac</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段是否</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>string</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>os_printf("get MacAdress:%s \n", pMacAdress-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>valuestring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> } </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     os_printf("get MacAdress failed \n");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pNumber</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = cJSON_GetObjectItem(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pJsonRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "number"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> if (pNumber) //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段是否存在 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (cJSON_IsNumber( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pNumber</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ))</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mac</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段是否数字整型类型 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      os_printf("get Number:%d \n", pNumber-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>valueint</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> } </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      os_printf("get Number failed \n");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段内容，判断是否为</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>json cJSON *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = cJSON_GetObjectItem( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pJsonRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "value"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> if (pValue) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cJSON *pName = cJSON_GetObjectItem( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "name"); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进一步剖析里面的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (pName)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (cJSON_IsString(pName)) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        os_printf("get value-&gt;Name : %s \n", pName-&gt;valuestring);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cJSON *pAge = cJSON_GetObjectItem( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "age"); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进一步剖析里面的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>age</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if(pAge)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       if (cJSON_IsNumber(pAge)) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       os_printf("get value-&gt;Age : %d \n", pAge-&gt;valueint);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cJSON *pBlog= cJSON_GetObjectItem( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "blog"); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进一步剖析里面的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>blog</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字段     </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     if (pBlog) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         if (cJSON_IsString(pBlog)) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        os_printf("get value-&gt;pBlog  : %s \n", pBlog-&gt;valuestring);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数组解析 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> int i ; //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用于解析数组循环时使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pArry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = cJSON_GetObjectItem( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pJsonRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "hexArry"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> if (pArry) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     int arryLength </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= cJSON_GetArraySize( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pArry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>先获取数组长度      </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    os_printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析到的数组长度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: %d \n", arryLength);     </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    for (i = 0;i &lt; arryLength;i++) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>逐个打印 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    os_printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数组</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的值为：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%d\n",i , </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_GetArrayItem( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pArry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> , i) -&gt; valueint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_Delete(pJsonRoot);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>单个解析例子</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>u8* data = "{\"string\":\"hello world\"}";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON * root = cJSON_Parse(data);</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>首先整体判断是否为一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>格式的数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (NULL != root)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       if (cJSON_HasObjectItem(root, "string"))//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>判断是否包含</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>string</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这个对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *string = cJSON_GetObjectItem(root, "string");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (cJSON_IsString(string)) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>char *s = cJSON_Print(string);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>os_printf("string: %s\r\n", s);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_free((void *) s);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_Delete(root);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>os_printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析错误</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>");</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析数字</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>u8* num = "{\"number\":12345}";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON * root2 = cJSON_Parse(num);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (NULL != root) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     if (cJSON_HasObjectItem(root, "number")) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *number = cJSON_GetObjectItem(root, "number");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (cJSON_IsNumber(number)) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>char *n = cJSON_Print(number);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>os_printf("number: %s\r\n", n);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_free((void *) n);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_Delete(root);</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       os_printf("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解析错误</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>");</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>//cJSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>的生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>u8 *mac_addr = "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>65:c6:3a:b2:33:c8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = cJSON_CreateObject(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="23F319"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = cJSON_CreateObject(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddString</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ToObject( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,"mac", </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mac_addr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新增一个字段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mac</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>到根点，数值是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mac_addr  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> cJSON_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddNumber</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ToObject( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,"number",2); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新增一个字段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>到根点，数值是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_AddStringToObject( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="23F319"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,"mac","xuhongv"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_AddNumberToObject( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="23F319"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,"age",18); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_AddStringToObject( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="23F319"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,"str","https://blog.csdn.net");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> cJSON_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddItem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ToObject( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, "value",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="23F319"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对象添加到根点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数组初始化 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int hex[5]={51,15,63,22,96}; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pHex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = cJSON_CreateIntArray(hex,5); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddItem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ToObject( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,"hex",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pHex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> );//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对象添加到根点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> char *s = cJSON_Print( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pRoot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> );//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJson</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>转换为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>char</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> *</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> os_printf("\r\n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数据为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: %s\r\n", s); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>释放内存 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_free((void *) s); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cJSON_Delete(pRoot);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>170792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236483</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>137947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26276" y="18577033"/>
+          <a:ext cx="3626069" cy="2187466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  "mac": "65:c6:3a:b2:33:c8", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  "number": 2, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  "value": </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     "mac":  "xuhongv",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "age":  18,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "str":  "https://blog.csdn.net"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "hex": [51, 15, 63, 22, 96]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" smtClean="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -16129,7 +20266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -16181,7 +20318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -16202,4 +20339,31 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D103" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.75"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/qt_project的写法.xlsx
+++ b/qt_project的写法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="qt的命令行" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>1 window中文GBK编码和Unicode编码转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,12 +315,102 @@
     <t>Qt json解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JSON: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ava</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cript </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bject </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>otation(JavaScript 对象表示法)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +458,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -411,74 +509,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1347,7 +1377,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="A0A0A0"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -14545,27 +14575,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>79863</xdr:rowOff>
+      <xdr:colOff>7882</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>106419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>453258</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>32845</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>532086</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvPr id="25" name="Text Box 1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="51289" y="316346"/>
-          <a:ext cx="11332728" cy="12828154"/>
+          <a:off x="7882" y="13920953"/>
+          <a:ext cx="7355928" cy="9799581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14591,103 +14621,7 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>要解析的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>json</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>的格式为：</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    "rootpath": "001",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    "usernum": 111,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    "childdep": [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>            "depid": "11",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>            "depnum": 20</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>        },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>            "depid": "15",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>            "depnum": 23</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>        }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14695,28 +14629,1594 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>328449</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>102850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472966</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>480796</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>6068</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="组合 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="78827" y="828726"/>
+          <a:ext cx="11332728" cy="12991876"/>
+          <a:chOff x="72258" y="454296"/>
+          <a:chExt cx="11332728" cy="12828154"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="72258" y="454296"/>
+            <a:ext cx="11332728" cy="12828154"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1694794" y="529832"/>
+            <a:ext cx="8342586" cy="12746626"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>std::map&lt;std::wstring, int&gt; part_depid_num;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>这里是吧</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>json</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>的数据直接写成了字符串的形式来完成</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>QByteArray data = QByteArray("{\"rootpath\":\"001\",\"usernum\":111,\"childdep\":[{\"depid\":\"11\",\"depnum\":20},{\"depid\":\"15\",\"depnum\":23}]}");</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>判断字符串转化为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>QJsonDocument  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>是否出现了错误</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>QJsonParseError jsonError;//Qt5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>新类 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>QJsonDocument json = QJsonDocument::fromJson(data, &amp;jsonError);//Qt5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>新类</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>if (jsonError.error == QJsonParseError::NoError)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>        if (json.isObject())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>        {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            QJsonObject rootObj = json.object();</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            QString rootpath;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            int rootusernum;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>是否含有</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>key  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>rootpath</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            if (rootObj.contains("</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>rootpath</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>"))</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>取出</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>key</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>rootpath</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>的值</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>                </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>QJsonValue value = rootObj.value("rootpath");</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>判断是否是</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>string</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>类型</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>                </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>if (value.isString())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                    rootpath = value.toString();//</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>得到</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>"001"</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            if (rootObj.contains("</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>usernum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>"))</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>取出</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>key</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>usernum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>的值</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>                </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>QJsonValue value = rootObj.value("usernum");</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>判断是否为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>double</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>类型</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>                </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>if (value.isDouble())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                    rootusernum = value.toDouble();//</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>得到</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>111</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            part_depid_num[rootpath.toStdWString()] = rootusernum;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            if (rootObj.contains("</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>childdep</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>"))</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                QJsonValue valueArray = rootObj.value("childdep");</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                //</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>判断类型是否为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>array</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>，并且将</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>array</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>遍历出来</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
+              <a:t>                </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>if (valueArray.isArray())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                    QJsonArray jsonArray = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>valueArray.toArray()</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                    for (int i = 0; i &lt; jsonArray.count();i++)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                    {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                        QJsonValue childValue = jsonArray[i];</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                        if (childValue.isObject())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                        {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            QString child_depid;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            QString child_usernum;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            int child_usern;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            QJsonObject  childObject = childValue.toObject();</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            if (childObject.contains("depid"))</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                QJsonValue valueJson = childObject.value("depid");</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                if (valueJson.isString())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                    child_depid = valueJson.toString();</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            if (childObject.contains("depnum"))</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                QJsonValue valueJson = childObject.value("depnum");</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                if (valueJson.isDouble())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                    child_usern = valueJson.toDouble();</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            if (child_usernum.isEmpty())</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                                part_depid_num[child_depid.toStdWString()] = child_usern;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                            }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                        }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                    }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>                }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>            }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>        }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    //printf(QString::fromStdWString(part_depid_num.begin()-&gt;first).toStdString().c_str());</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    std::map&lt;std::wstring, int&gt; ::iterator it;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    for (it = part_depid_num.begin(); it != part_depid_num.end();it++)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>        cout &lt;&lt; QString::fromStdWString(it-&gt;first).toStdString().c_str()&lt;&lt;endl;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+              <a:t>    }</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="组合 26"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="78827" y="3252674"/>
+            <a:ext cx="1544970" cy="5155602"/>
+            <a:chOff x="78827" y="3252674"/>
+            <a:chExt cx="1544970" cy="5155602"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Text Box 1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="78827" y="3252674"/>
+              <a:ext cx="1544970" cy="5155602"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>要解析的</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>json</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>的格式为：</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>{</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    "rootpath": "001",</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    "usernum": 111,</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    "childdep": [</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>        {</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>            "depid": "11",</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>            "depnum": 20</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>        },</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>        {</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>            "depid": "15",</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>            "depnum": 23</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>        }</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>    ]</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>}</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="矩形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400706" y="5123793"/>
+              <a:ext cx="1110155" cy="275896"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>花括号保存对象</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="7" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="400706" y="5261741"/>
+              <a:ext cx="32846" cy="965638"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="矩形 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="467712" y="5538952"/>
+              <a:ext cx="1110155" cy="275896"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>方括号保存数组</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="14" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="913087" y="5814848"/>
+              <a:ext cx="109703" cy="208893"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="矩形 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="158969" y="3863866"/>
+              <a:ext cx="1286203" cy="275896"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>键</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>(key)": </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>值</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>(value),</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="20" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="802071" y="3704897"/>
+              <a:ext cx="84740" cy="158969"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>578069</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>151087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486104</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvPr id="24" name="Text Box 1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1694794" y="339333"/>
-          <a:ext cx="8342586" cy="12792029"/>
+          <a:off x="1944414" y="13965621"/>
+          <a:ext cx="5373414" cy="9636672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14743,669 +16243,669 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>QFile loadFile("D:\\1.json"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>if(!loadFile.open(QIODevice::ReadOnly)) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "could't open projects json"; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  return; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>QByteArray allData = loadFile.readAll(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>loadFile.close(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>QJsonParseError json_error; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>QJsonDocument jsonDoc(QJsonDocument::fromJson(allData, &amp;json_error)); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>if(json_error.error != QJsonParseError::NoError) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>   qDebug() &lt;&lt; "json error!"; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>   return; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>QJsonObject rootObj = jsonDoc.object(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>输出所有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>，这一步是非必须的，放最后的话，你可能读不到任何</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>key </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>QStringList keys = rootObj.keys(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>for(int i = 0; i &lt; keys.size(); i++) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "key" &lt;&lt; i &lt;&lt; " is:" &lt;&lt; keys.at(i); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>因为是预先定义好的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>数据格式，所以这里可以这样读取 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>if(rootObj.contains("first fruit")) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  QJsonObject subObj = rootObj.value("first fruit").toObject(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "describe is:" &lt;&lt; subObj["describe"].toString(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "icon is:" &lt;&lt; subObj["icon"].toString(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "name is:" &lt;&lt; subObj["name"].toString(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>if(rootObj.contains("second fruit")) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  QJsonObject subObj = rootObj.value("second fruit").toObject();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "describe is:" &lt;&lt; subObj.value("describe").toString(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "icon is:" &lt;&lt; subObj.value("icon").toString(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  qDebug() &lt;&lt; "name is:" &lt;&lt; subObj.value("name").toString(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>if(rootObj.contains("three fruit array")) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  QJsonArray subArray = rootObj.value("three fruit array").toArray(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  for(int i = 0; i&lt; subArray.size(); i++) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>   qDebug() &lt;&lt; i&lt;&lt;" value is:" &lt;&lt; subArray.at(i).toString(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  } </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105102</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>86712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517632</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="105102" y="15950764"/>
+          <a:ext cx="1778875" cy="3913788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>  "first fruit": </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "describe":"an apple",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "icon":"appleIcon",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "name":"apple"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>    }, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>std::map&lt;std::wstring, int&gt; part_depid_num;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>"second fruit": </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>   {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "describe":"an orange",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "icon":"orangeIcon",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "name":"orange"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>    }, </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>这里是吧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>json</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>的数据直接写成了字符串的形式来完成</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>QByteArray data = QByteArray("{\"rootpath\":\"001\",\"usernum\":111,\"childdep\":[{\"depid\":\"11\",\"depnum\":20},{\"depid\":\"15\",\"depnum\":23}]}");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>判断字符串转化为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>QJsonDocument  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>是否出现了错误</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>QJsonParseError jsonError;//Qt5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>新类 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>QJsonDocument json = QJsonDocument::fromJson(data, &amp;jsonError);//Qt5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>新类</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>if (jsonError.error == QJsonParseError::NoError)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>        if (json.isObject())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            QJsonObject rootObj = json.object();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            QString rootpath;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            int rootusernum;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>是否含有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>key  rootpath</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            if (rootObj.contains("rootpath"))</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>取出</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>rootpath</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>的值</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>QJsonValue value = rootObj.value("rootpath");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>判断是否是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>string</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>类型</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>if (value.isString())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                    rootpath = value.toString();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            if (rootObj.contains("usernum"))</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>取出</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>usernum</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>的值</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>QJsonValue value = rootObj.value("usernum");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>判断是否为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>double</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>类型</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>if (value.isDouble())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                    rootusernum = value.toDouble();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            part_depid_num[rootpath.toStdWString()] = rootusernum;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            if (rootObj.contains("childdep"))</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                QJsonValue valueArray = rootObj.value("childdep");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>判断类型是否为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>array</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>，并且将</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>array</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>遍历出来</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>                </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>if (valueArray.isArray())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                    QJsonArray jsonArray = valueArray.toArray();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                    for (int i = 0; i &lt; jsonArray.count();i++)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                    {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                        QJsonValue childValue = jsonArray[i];</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                        if (childValue.isObject())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            QString child_depid;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            QString child_usernum;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            int child_usern;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            QJsonObject  childObject = childValue.toObject();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            if (childObject.contains("depid"))</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                QJsonValue valueJson = childObject.value("depid");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                if (valueJson.isString())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                    child_depid = valueJson.toString();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            if (childObject.contains("depnum"))</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                QJsonValue valueJson = childObject.value("depnum");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                if (valueJson.isDouble())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                    child_usern = valueJson.toDouble();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            if (child_usernum.isEmpty())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                                part_depid_num[child_depid.toStdWString()] = child_usern;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                        }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                    }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>                }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>        }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    //printf(QString::fromStdWString(part_depid_num.begin()-&gt;first).toStdString().c_str());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    std::map&lt;std::wstring, int&gt; ::iterator it;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    for (it = part_depid_num.begin(); it != part_depid_num.end();it++)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>        cout &lt;&lt; QString::fromStdWString(it-&gt;first).toStdString().c_str()&lt;&lt;endl;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
-            <a:t>    }</a:t>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>"three fruit array": </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>    [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "eat 0",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "eat 1",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "eat 2",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "eat 3",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>        "eat 4"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>     ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118241</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>81457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>530771</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>32846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="118241" y="20556923"/>
+          <a:ext cx="1778875" cy="3025664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>运行结果：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>key 0 is: "first fruit" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>key 1 is: "second fruit" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>key 2 is: "three fruit array" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>describe is: "an apple" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>icon is: "appleIcon" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>name is: "apple" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>describe is: "an orange" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>icon is: "orangeIcon" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>name is: "orange" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>0 value is: "eat 0" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>1 value is: "eat 1" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>2 value is: "eat 2" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>3 value is: "eat 3" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>4 value is: "eat 4"</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15416,14 +16916,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -15490,6 +16990,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -15524,6 +17025,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15699,32 +17201,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.75"/>
-    <row r="44" s="5" customFormat="1" ht="20.25"/>
+    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15734,155 +17236,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75">
+    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -15896,7 +17398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A81"/>
   <sheetViews>
@@ -15904,42 +17406,42 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="3" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="59" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="81" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>40</v>
       </c>
@@ -15953,27 +17455,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="24" s="1" customFormat="1" ht="18.75"/>
-    <row r="44" s="5" customFormat="1" ht="20.25"/>
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15983,7 +17485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A49"/>
   <sheetViews>
@@ -15991,38 +17493,38 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75"/>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25">
+    <row r="44" spans="1:1" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75">
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -16036,24 +17538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.75"/>
+    <row r="22" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16063,22 +17565,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.75"/>
+    <row r="22" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16088,24 +17590,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F149" sqref="E141:F149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.75"/>
+    <row r="2" spans="1:1" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
